--- a/rrd/AppData/TeamData.xlsx
+++ b/rrd/AppData/TeamData.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC7F99-B165-46AC-8EBB-E4030E57C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512AFDE-955A-4975-9883-8BC797FD4FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
     <sheet name="RRDTeam" sheetId="2" r:id="rId2"/>
     <sheet name="TeamNewCriteria" sheetId="3" r:id="rId3"/>
     <sheet name="RRDUser" sheetId="4" r:id="rId4"/>
-    <sheet name="EditTeamsetup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Team</t>
   </si>
@@ -94,19 +93,10 @@
     <t>Allowedopencases</t>
   </si>
   <si>
-    <t>RRD Mirketa</t>
-  </si>
-  <si>
-    <t>Security User</t>
-  </si>
-  <si>
     <t>7/21/2020</t>
   </si>
   <si>
     <t>7/22/2020</t>
-  </si>
-  <si>
-    <t>AllowOpencases</t>
   </si>
   <si>
     <t>EditMaxIntakeLimit</t>
@@ -128,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,18 +136,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -202,15 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +486,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +499,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,11 +529,11 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,22 +541,22 @@
         <v>23.5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -653,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63AF7F-1876-4A02-A7DC-CCFFFDBC9E4C}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,115 +672,60 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80D008-5451-4A76-87C5-C93A64EF7AA3}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>